--- a/notes.xlsx
+++ b/notes.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="PaperList" sheetId="1" r:id="rId1"/>
     <sheet name="web" sheetId="2" r:id="rId2"/>
+    <sheet name="ARN" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="111">
   <si>
     <t>Distilled Person Re-identification: Towards a More Scalable System</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基于辅助数据集，使用softlabel对target数据进行表征。一共三种loss，一种是聚类loss，对labeled数据希望positive的近，hard negative远。第二种loss，是cross-view摄像头应该分布一致。第三个是agent learning的loss，对于每个reference person，希望unlabeled person与之visually similar，但是实际不是同一个人，同时有一个center-pulling term 会reinforce the representativeness of the reference agents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Unsupervised Person Re-identification: Clustering and Fine-tuning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unsupervised Cross-dataset Person Re-identification by Transfer Learning of Spatial-Temporal Patterns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Enhancing Person Re-identification in a Self-Trained Subspace
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,18 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://github.com/huanghoujing/EANet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类似PCB部件思想，使用关键点定位来align，然后取9个区域进行训练（source domain）。同时，由于特征有冗余，所以学习一个分割结果，使得特征更加discriminative，分割标注使用的是coco测出来的结果（source domain + targetdomain）。此外，作者使用SPGAN数据扩增，这个操作涨了很多点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>思路，使用在source dataset上训好的模型提取特征，DBSCAN聚类，然后根据聚类得到的pairs训练模型，loss为triplet loss。Contribution，一个是用理论证明一些公式的来源，另一个是使用了k-reciprocal encoding来度量相似性。同时，为了domain adaption，所以希望每个target feature与某些source feature很相似，这样就又有了一个distance，两个distance相加，得到最终的distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>resnet50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,6 +314,158 @@
   </si>
   <si>
     <t>Improving Person Re-identification by Attribute and Identity Learning 论文：https://arxiv.org/pdf/1703.07220.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路，使用在source dataset上训好的模型提取特征，DBSCAN聚类，然后根据聚类得到的pairs训练模型，loss为triplet loss。Contribution，一个是用理论证明一些公式的来源，另一个是使用了k-reciprocal encoding来度量相似性。同时，为了domain adaption，所以希望每个target feature与某些source feature很相似，这样就又有了一个distance，两个distance相加，得到最终的distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似PCB部件思想，使用关键点定位来align，然后取9个区域进行训练（source domain）。同时，由于特征有冗余，所以学习一个分割结果，使得特征更加discriminative，分割标注使用的是coco测出来的结果（source domain + targetdomain）。此外，作者使用SPGAN数据扩增，这个操作涨了很多点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/huanghoujing/EANet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Person Search via A Mask guided Two stream CNN Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPGAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARN Adaptation and Re-Identification Network:
+An Unsupervised Deep Transfer Learning Approach to Person Re-Identification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Clustering for Unsupervised Learning
+of Visual Features</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECCV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Facebook AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Spatial Feature Reconstruction for Partial Person Re-identification:
+Alignment-free Approach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partial Person Re-identification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liang Zheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悉尼科技大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用CycleGAN先transfer，其中引入两个loss，一个是id，一个是contrastive。一个是转换前后同一张图x与G（x）应该是相似的，但是即使是同一风格，G(x)与y应该是不相似的。同时，在提取特征后，分割成两部分pooling再concate。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVPR workshop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本就是self-training了，不一样的是，这个用于分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partial Reid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJ-AIDL：Transferable joint attribute-identity deep learning
+for unsupervised person re-identification.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HHL: Generalizing A Person Retrieval Model Hetero- and Homogeneously</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera style adaptation for person re-identification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/zhunzhong07/HHL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graph Reid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Group-shuffling Random Walk for Person Re-identification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Person Re-identification with Deep Similarity-Guided Graph Neural Network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECCV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spectral Feature Transformation for Person Re-identification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spatial-Temporal Person Re-identification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAAI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supervised</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tfusion: Unsupervised Cross-dataset Person Re-identification by Transfer Learning of Spatial-Temporal Patterns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于辅助数据集，使用softlabel对target数据进行表征。一共三种loss，一种是聚类loss，对labeled数据希望positive的近，hard negative远。第二种loss，是cross-view摄像头应该分布一致。第三个是agent learning的loss，对于每个reference person，希望unlabeled person与之visually similar，但是实际不是同一个人，同时有一个center-pulling term 会reinforce the representativeness of the reference agents</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,10 +531,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -419,6 +552,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2733675" y="819150"/>
+          <a:ext cx="10772775" cy="4191000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -708,17 +901,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S17"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37.125" style="2" customWidth="1"/>
@@ -729,7 +924,7 @@
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.15">
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>21</v>
@@ -740,18 +935,18 @@
       <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="5"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.15">
       <c r="N2" t="s">
@@ -818,6 +1013,9 @@
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="H4">
+        <v>46.8</v>
+      </c>
       <c r="L4" t="s">
         <v>9</v>
       </c>
@@ -857,13 +1055,13 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>67.7</v>
@@ -880,34 +1078,34 @@
     </row>
     <row r="6" spans="2:19" ht="135" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
       </c>
       <c r="F6">
         <v>2018</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M6" t="s">
         <v>12</v>
@@ -933,7 +1131,7 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
         <v>11</v>
@@ -959,16 +1157,16 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F8">
         <v>2018</v>
@@ -976,15 +1174,39 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9">
+        <v>2019</v>
+      </c>
+      <c r="M9" t="s">
+        <v>108</v>
+      </c>
+      <c r="N9">
+        <v>98</v>
+      </c>
+      <c r="O9">
+        <v>95.5</v>
+      </c>
+      <c r="P9">
+        <v>94.5</v>
+      </c>
+      <c r="Q9">
+        <v>92.7</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
@@ -995,200 +1217,402 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11">
-        <v>2019</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11">
-        <v>94.5</v>
-      </c>
-      <c r="O11">
-        <v>85.9</v>
-      </c>
-      <c r="P11">
-        <v>86.4</v>
-      </c>
-      <c r="Q11">
-        <v>76.400000000000006</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <v>2019</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12">
+        <v>94.5</v>
+      </c>
+      <c r="O12">
+        <v>85.9</v>
+      </c>
+      <c r="P12">
+        <v>86.4</v>
+      </c>
+      <c r="Q12">
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13">
+        <v>2019</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13">
+        <v>66.2</v>
+      </c>
+      <c r="O13">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="P13">
+        <v>47.4</v>
+      </c>
+      <c r="Q13">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="135" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>75.8</v>
+      </c>
+      <c r="O14">
+        <v>53.7</v>
+      </c>
+      <c r="P14">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="Q14">
         <v>49</v>
       </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" t="s">
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="O15">
+        <v>43</v>
+      </c>
+      <c r="P15">
+        <v>63.6</v>
+      </c>
+      <c r="Q15">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="108" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
         <v>19</v>
       </c>
-      <c r="N12">
-        <v>66.2</v>
-      </c>
-      <c r="O12">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="P12">
-        <v>47.4</v>
-      </c>
-      <c r="Q12">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" ht="135" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" t="s">
-        <v>60</v>
-      </c>
-      <c r="L13" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13">
-        <v>75.8</v>
-      </c>
-      <c r="O13">
-        <v>53.7</v>
-      </c>
-      <c r="P13">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="Q13">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="O14">
-        <v>43</v>
-      </c>
-      <c r="P14">
-        <v>63.6</v>
-      </c>
-      <c r="Q14">
-        <v>40.4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" ht="108" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N15">
+      <c r="J16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16">
         <v>78</v>
       </c>
-      <c r="O15">
+      <c r="O16">
         <v>51.6</v>
       </c>
-      <c r="P15">
+      <c r="P16">
         <v>67.7</v>
       </c>
-      <c r="Q15">
+      <c r="Q16">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17">
         <v>2019</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="G17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
         <v>3</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>2018</v>
       </c>
     </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="81" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21">
+        <v>2018</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N21">
+        <v>58.1</v>
+      </c>
+      <c r="O21">
+        <v>26.9</v>
+      </c>
+      <c r="P21">
+        <v>46.9</v>
+      </c>
+      <c r="Q21">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22">
+        <v>2018</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N22">
+        <v>70.3</v>
+      </c>
+      <c r="O22">
+        <v>39.4</v>
+      </c>
+      <c r="P22">
+        <v>60.2</v>
+      </c>
+      <c r="Q22">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23">
+        <v>2018</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24">
+        <v>2018</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="N24">
+        <v>62.2</v>
+      </c>
+      <c r="O24">
+        <v>31.4</v>
+      </c>
+      <c r="P24">
+        <v>46.9</v>
+      </c>
+      <c r="Q24">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25">
+        <v>2018</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26">
+        <v>2018</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A32:A35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1197,24 +1621,39 @@
     <hyperlink ref="B5" r:id="rId3" display="CVPR2019\oral\1903.06325.pdf"/>
     <hyperlink ref="G6" r:id="rId4"/>
     <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="G11" r:id="rId6"/>
-    <hyperlink ref="B11" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8" display="others\EnhancingPersonRe-identificationinaSelf-TrainedSubspace.pdf"/>
-    <hyperlink ref="B7" r:id="rId9"/>
-    <hyperlink ref="B10" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="G12" r:id="rId12"/>
-    <hyperlink ref="B13" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="K15" r:id="rId15"/>
-    <hyperlink ref="G15" r:id="rId16"/>
-    <hyperlink ref="B8" r:id="rId17"/>
-    <hyperlink ref="B16" r:id="rId18"/>
-    <hyperlink ref="G16" r:id="rId19" display="https://github.com/Yu-Wu/One-Example-Person-ReID"/>
-    <hyperlink ref="B17" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId6"/>
+    <hyperlink ref="B12" r:id="rId7"/>
+    <hyperlink ref="B7" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9" display="others\EnhancingPersonRe-identificationinaSelf-TrainedSubspace.pdf"/>
+    <hyperlink ref="B13" r:id="rId10"/>
+    <hyperlink ref="G13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B16" r:id="rId13"/>
+    <hyperlink ref="K16" r:id="rId14"/>
+    <hyperlink ref="G16" r:id="rId15"/>
+    <hyperlink ref="B8" r:id="rId16"/>
+    <hyperlink ref="B17" r:id="rId17"/>
+    <hyperlink ref="G17" r:id="rId18" display="https://github.com/Yu-Wu/One-Example-Person-ReID"/>
+    <hyperlink ref="B18" r:id="rId19"/>
+    <hyperlink ref="B20" r:id="rId20"/>
+    <hyperlink ref="B21" r:id="rId21"/>
+    <hyperlink ref="B22" r:id="rId22" display="others\ARN_Li_Adaptation_and_Re-Identification_CVPR_2018_paper.pdf"/>
+    <hyperlink ref="B26" r:id="rId23" display="others\Mathilde_Caron_Deep_Clustering_for_ECCV_2018_paper.pdf"/>
+    <hyperlink ref="B27" r:id="rId24" display="others\He_Deep_Spatial_Feature_CVPR_2018_paper.pdf"/>
+    <hyperlink ref="B28" r:id="rId25"/>
+    <hyperlink ref="J22" location="ARN!A1" display="看图"/>
+    <hyperlink ref="B23" r:id="rId26" display="others\Wang_Transferable_Joint_Attribute-Identity_CVPR_2018_paper.pdf"/>
+    <hyperlink ref="B24" r:id="rId27" display="others\Zhong_Camera_Style_Adaptation_CVPR_2018_paper.pdf"/>
+    <hyperlink ref="B25" r:id="rId28"/>
+    <hyperlink ref="G25" r:id="rId29"/>
+    <hyperlink ref="B32" r:id="rId30"/>
+    <hyperlink ref="B33" r:id="rId31"/>
+    <hyperlink ref="B34" r:id="rId32"/>
+    <hyperlink ref="B9" r:id="rId33"/>
+    <hyperlink ref="B10" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
 
@@ -1233,8 +1672,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1" s="6" t="s">
-        <v>71</v>
+      <c r="B1" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>10</v>
@@ -1242,42 +1681,42 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1291,4 +1730,20 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>